--- a/art_collections/art_collections/doctype/sales_confirmation/sales_confirmation.xlsx
+++ b/art_collections/art_collections/doctype/sales_confirmation/sales_confirmation.xlsx
@@ -20,23 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Sales Confirmation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyer : </t>
   </si>
   <si>
     <t xml:space="preserve">ARTYFETES FACTORY
 ZA DE LA MESNILIERE 
-11 RUE DES QUATRE VENTS 14790 VERSON France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NINGBO HYSEAS IMPORT &amp; EXPORT CO.,LTD.
-RM 135, NO. 85 WENJIAO RD, JIANGBEI DISTRICT, NINGBO CITY, ZHEJIANG PROVINCE
-EMAIL:gracewu@hyseas.com
-TEL:86-574-8758 6916  FAX:86-574-8724 7982</t>
+11 RUE DES QUATRE VENTS 
+14790 VERSON
+France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Details</t>
   </si>
   <si>
     <t xml:space="preserve">Your Number Order :</t>
@@ -48,25 +44,18 @@
     <t xml:space="preserve">Our Number Order :</t>
   </si>
   <si>
-    <t xml:space="preserve">P-150672</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delivery Date :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCT 30,2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -109,52 +98,37 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Calibri, Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri, Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,12 +139,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -195,19 +163,19 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -234,72 +202,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,7 +292,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -375,6 +319,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>432000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1159560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="432000" y="657720"/>
+          <a:ext cx="727560" cy="733680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -382,11 +368,11 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.79"/>
   </cols>
@@ -413,16 +399,14 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -430,17 +414,13 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="L2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -451,19 +431,12 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12" t="n">
-        <v>44754</v>
-      </c>
-      <c r="Q3" s="12"/>
+      <c r="O3" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -474,70 +447,58 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="11" t="s">
+      <c r="O4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="O5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="3">
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="E2:K5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -546,5 +507,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/art_collections/art_collections/doctype/sales_confirmation/sales_confirmation.xlsx
+++ b/art_collections/art_collections/doctype/sales_confirmation/sales_confirmation.xlsx
@@ -128,7 +128,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,18 +139,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7B59"/>
-        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,14 +224,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,66 +236,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF7B59"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -330,9 +250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1159560</xdr:colOff>
+      <xdr:colOff>1159200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -345,13 +265,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="432000" y="657720"/>
-          <a:ext cx="727560" cy="733680"/>
+          <a:off x="432000" y="658080"/>
+          <a:ext cx="727200" cy="733320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -369,10 +289,10 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.79"/>
   </cols>
@@ -466,24 +386,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -501,8 +403,8 @@
     <mergeCell ref="E2:K5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
